--- a/docs/lcdatadictionary.xlsx
+++ b/docs/lcdatadictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kobi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kobi\Google Drive\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LoanStats!$A$1:$B$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RejectStats!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4181,13 +4181,13 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.296875" customWidth="1"/>
     <col min="6" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
